--- a/files/wavelets/Results.xlsx
+++ b/files/wavelets/Results.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ricardo\Documents\GitHub\CurriculumVitae\files\wavelets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjacome\Documents\GitHub\CurriculumVitae\files\wavelets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5225C975-1843-4821-B4FA-CB397FEA2840}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1132" yWindow="8" windowWidth="6721" windowHeight="12787" xr2:uid="{7F046B1A-A22A-44AC-A902-528779EF7EB9}"/>
+    <workbookView xWindow="1125" yWindow="15" windowWidth="6720" windowHeight="12780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
   <si>
     <t>Test Name</t>
   </si>
@@ -74,11 +73,20 @@
   <si>
     <t>Avg. COF</t>
   </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Taborek</t>
+  </si>
+  <si>
+    <t>Gravel</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -151,6 +159,1119 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.9224</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8940-42F1-9F27-7101899A5AD8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.91679999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8940-42F1-9F27-7101899A5AD8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.52059999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8940-42F1-9F27-7101899A5AD8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.47089999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8940-42F1-9F27-7101899A5AD8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.44280000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-8940-42F1-9F27-7101899A5AD8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.5595</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-8940-42F1-9F27-7101899A5AD8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.63270000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-8940-42F1-9F27-7101899A5AD8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.65129999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-8940-42F1-9F27-7101899A5AD8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.58909999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-8940-42F1-9F27-7101899A5AD8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.60389999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-8940-42F1-9F27-7101899A5AD8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1952402719"/>
+        <c:axId val="1952401887"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1952402719"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1952401887"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1952401887"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1952402719"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>176211</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -449,19 +1570,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E7D2045-94ED-4B5D-A892-1818608E090B}">
-  <dimension ref="A1:D11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -475,7 +1597,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -483,14 +1605,14 @@
         <v>0.9224</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>0.93049999999999999</v>
       </c>
       <c r="D2" s="2">
         <f>(ABS(B2-C2)/C2)</f>
-        <v>7.7600000000000002E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+        <v>8.7049973132724296E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -498,14 +1620,14 @@
         <v>0.91679999999999995</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>0.93049999999999999</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" ref="D3:D11" si="0">(ABS(B3-C3)/C3)</f>
-        <v>8.3200000000000052E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+        <v>1.4723267060720092E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -520,7 +1642,7 @@
         <v>5.3454545454545616E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -534,8 +1656,14 @@
         <f t="shared" si="0"/>
         <v>0.1438181818181819</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -546,11 +1674,20 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="0"/>
+        <f>(ABS(B6-C6)/C6)</f>
         <v>0.19490909090909092</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="I6">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="K6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -561,11 +1698,14 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="0"/>
+        <f>(ABS(B7-C7)/C7)</f>
         <v>1.7272727272727186E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="I7">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -573,14 +1713,18 @@
         <v>0.63270000000000004</v>
       </c>
       <c r="C8" s="1">
-        <v>0.7</v>
+        <f>AVERAGE(C4,C2)</f>
+        <v>0.74025000000000007</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="0"/>
-        <v>9.614285714285703E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+        <v>0.14528875379939213</v>
+      </c>
+      <c r="I8">
+        <v>0.93500000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -588,14 +1732,18 @@
         <v>0.65129999999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>0.7</v>
+        <f>AVERAGE(C5,C3)</f>
+        <v>0.74025000000000007</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="0"/>
-        <v>6.957142857142852E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+        <v>0.12016210739615005</v>
+      </c>
+      <c r="I9">
+        <v>0.92600000000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -603,14 +1751,18 @@
         <v>0.58909999999999996</v>
       </c>
       <c r="C10" s="1">
-        <v>0.61</v>
+        <f>AVERAGE(C2,C6)</f>
+        <v>0.74025000000000007</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="0"/>
-        <v>3.4262295081967264E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+        <v>0.20418777440054051</v>
+      </c>
+      <c r="I10">
+        <v>0.91400000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -618,14 +1770,197 @@
         <v>0.60389999999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>0.61</v>
+        <f>AVERAGE(C3,C7)</f>
+        <v>0.74025000000000007</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="0"/>
-        <v>9.9999999999999915E-3</v>
+        <v>0.18419452887538004</v>
+      </c>
+      <c r="I11">
+        <v>0.89300000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <f>AVERAGE(I6:I11)</f>
+        <v>0.93049999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.9224</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.93049999999999999</v>
+      </c>
+      <c r="D18" s="2">
+        <f>(ABS(B18-C18)/C18)</f>
+        <v>8.7049973132724296E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.91679999999999995</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.93049999999999999</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" ref="D19:D27" si="1">(ABS(B19-C19)/C19)</f>
+        <v>1.4723267060720092E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.52059999999999995</v>
+      </c>
+      <c r="C20" s="1">
+        <f>AVERAGE(B20:B21)</f>
+        <v>0.49574999999999997</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" si="1"/>
+        <v>5.0126071608673696E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.47089999999999999</v>
+      </c>
+      <c r="C21" s="1">
+        <f>AVERAGE(B20:B21)</f>
+        <v>0.49574999999999997</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="1"/>
+        <v>5.0126071608673696E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.44280000000000003</v>
+      </c>
+      <c r="C22" s="1">
+        <f>AVERAGE(B22:B23)</f>
+        <v>0.50114999999999998</v>
+      </c>
+      <c r="D22" s="2">
+        <f>(ABS(B22-C22)/C22)</f>
+        <v>0.11643220592636927</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.5595</v>
+      </c>
+      <c r="C23" s="1">
+        <f>AVERAGE(B22:B23)</f>
+        <v>0.50114999999999998</v>
+      </c>
+      <c r="D23" s="2">
+        <f>(ABS(B23-C23)/C23)</f>
+        <v>0.11643220592636938</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.63270000000000004</v>
+      </c>
+      <c r="C24" s="1">
+        <f>AVERAGE(C20,C18)</f>
+        <v>0.71312500000000001</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" ref="D24:D27" si="2">(ABS(B24-C24)/C24)</f>
+        <v>0.11277826468010513</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.65129999999999999</v>
+      </c>
+      <c r="C25" s="1">
+        <f>AVERAGE(C21,C19)</f>
+        <v>0.71312500000000001</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="2"/>
+        <v>8.6695880806310285E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.58909999999999996</v>
+      </c>
+      <c r="C26" s="1">
+        <f>AVERAGE(C18,C22)</f>
+        <v>0.71582499999999993</v>
+      </c>
+      <c r="D26" s="2">
+        <f>(ABS(B26-C26)/C26)</f>
+        <v>0.17703349282296649</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.60389999999999999</v>
+      </c>
+      <c r="C27" s="1">
+        <f>AVERAGE(C19,C23)</f>
+        <v>0.71582499999999993</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" si="2"/>
+        <v>0.15635804840568568</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/files/wavelets/Results.xlsx
+++ b/files/wavelets/Results.xlsx
@@ -74,13 +74,13 @@
     <t>Avg. COF</t>
   </si>
   <si>
-    <t>Testing</t>
-  </si>
-  <si>
     <t>Taborek</t>
   </si>
   <si>
     <t>Gravel</t>
+  </si>
+  <si>
+    <t>Gabby Testing</t>
   </si>
 </sst>
 </file>
@@ -1243,16 +1243,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>14287</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>176211</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>338137</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>61911</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1573,8 +1573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1657,10 +1657,10 @@
         <v>0.1438181818181819</v>
       </c>
       <c r="I5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" t="s">
         <v>14</v>
-      </c>
-      <c r="L5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1681,7 +1681,7 @@
         <v>0.96499999999999997</v>
       </c>
       <c r="K6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L6">
         <v>0.6</v>
@@ -1827,7 +1827,7 @@
         <v>0.93049999999999999</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" ref="D19:D27" si="1">(ABS(B19-C19)/C19)</f>
+        <f t="shared" ref="D19:D21" si="1">(ABS(B19-C19)/C19)</f>
         <v>1.4723267060720092E-2</v>
       </c>
     </row>
